--- a/Textbooks, projects/Applied Math/labs/lab_6/var_17/lab_6_var_17.xlsx
+++ b/Textbooks, projects/Applied Math/labs/lab_6/var_17/lab_6_var_17.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21029"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{583F582B-B541-429D-A351-4BC430AD7B8B}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19800930-C3D1-43F7-9627-569963FBEAB1}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -4616,1371 +4616,6 @@
     </mc:AlternateContent>
     <xdr:clientData/>
   </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>104775</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>185737</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="4977901" cy="191078"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-      <mc:Choice Requires="a14">
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="7" name="TextBox 6">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{83535C20-8E60-48E5-99DB-C7608F0BFC11}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr txBox="1"/>
-          </xdr:nvSpPr>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="6200775" y="1138237"/>
-              <a:ext cx="4977901" cy="191078"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:noFill/>
-          </xdr:spPr>
-          <xdr:style>
-            <a:lnRef idx="0">
-              <a:scrgbClr r="0" g="0" b="0"/>
-            </a:lnRef>
-            <a:fillRef idx="0">
-              <a:scrgbClr r="0" g="0" b="0"/>
-            </a:fillRef>
-            <a:effectRef idx="0">
-              <a:scrgbClr r="0" g="0" b="0"/>
-            </a:effectRef>
-            <a:fontRef idx="minor">
-              <a:schemeClr val="tx1"/>
-            </a:fontRef>
-          </xdr:style>
-          <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
-              <a:spAutoFit/>
-            </a:bodyPr>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr/>
-              <a14:m>
-                <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
-                  <m:oMathParaPr>
-                    <m:jc m:val="centerGroup"/>
-                  </m:oMathParaPr>
-                  <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
-                    <m:sSub>
-                      <m:sSubPr>
-                        <m:ctrlPr>
-                          <a:rPr lang="ru-RU" sz="1100" i="1">
-                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                          </a:rPr>
-                        </m:ctrlPr>
-                      </m:sSubPr>
-                      <m:e>
-                        <m:r>
-                          <a:rPr lang="en-US" sz="1100" b="0" i="1">
-                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                          </a:rPr>
-                          <m:t>𝑦</m:t>
-                        </m:r>
-                      </m:e>
-                      <m:sub>
-                        <m:r>
-                          <a:rPr lang="en-US" sz="1100" b="0" i="1">
-                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                          </a:rPr>
-                          <m:t>𝑖</m:t>
-                        </m:r>
-                        <m:r>
-                          <a:rPr lang="en-US" sz="1100" b="0" i="1">
-                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                          </a:rPr>
-                          <m:t>+1</m:t>
-                        </m:r>
-                      </m:sub>
-                    </m:sSub>
-                    <m:d>
-                      <m:dPr>
-                        <m:ctrlPr>
-                          <a:rPr lang="en-US" sz="1100" b="0" i="1">
-                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                          </a:rPr>
-                        </m:ctrlPr>
-                      </m:dPr>
-                      <m:e>
-                        <m:r>
-                          <a:rPr lang="en-US" sz="1100" b="0" i="1">
-                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                          </a:rPr>
-                          <m:t>2,163+0,735</m:t>
-                        </m:r>
-                        <m:r>
-                          <a:rPr lang="en-US" sz="1100" b="0" i="1">
-                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                          </a:rPr>
-                          <m:t>𝑝</m:t>
-                        </m:r>
-                        <m:d>
-                          <m:dPr>
-                            <m:ctrlPr>
-                              <a:rPr lang="en-US" sz="1100" b="0" i="1">
-                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                              </a:rPr>
-                            </m:ctrlPr>
-                          </m:dPr>
-                          <m:e>
-                            <m:sSub>
-                              <m:sSubPr>
-                                <m:ctrlPr>
-                                  <a:rPr lang="en-US" sz="1100" b="0" i="1">
-                                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                                  </a:rPr>
-                                </m:ctrlPr>
-                              </m:sSubPr>
-                              <m:e>
-                                <m:r>
-                                  <a:rPr lang="en-US" sz="1100" b="0" i="1">
-                                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                                  </a:rPr>
-                                  <m:t>𝑥</m:t>
-                                </m:r>
-                              </m:e>
-                              <m:sub>
-                                <m:r>
-                                  <a:rPr lang="en-US" sz="1100" b="0" i="1">
-                                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                                  </a:rPr>
-                                  <m:t>𝑖</m:t>
-                                </m:r>
-                              </m:sub>
-                            </m:sSub>
-                          </m:e>
-                        </m:d>
-                      </m:e>
-                    </m:d>
-                    <m:r>
-                      <a:rPr lang="en-US" sz="1100" b="0" i="1">
-                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                      </a:rPr>
-                      <m:t>+</m:t>
-                    </m:r>
-                    <m:sSub>
-                      <m:sSubPr>
-                        <m:ctrlPr>
-                          <a:rPr lang="ru-RU" sz="1100" i="1">
-                            <a:solidFill>
-                              <a:schemeClr val="tx1"/>
-                            </a:solidFill>
-                            <a:effectLst/>
-                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                            <a:ea typeface="+mn-ea"/>
-                            <a:cs typeface="+mn-cs"/>
-                          </a:rPr>
-                        </m:ctrlPr>
-                      </m:sSubPr>
-                      <m:e>
-                        <m:r>
-                          <a:rPr lang="en-US" sz="1100" b="0" i="1">
-                            <a:solidFill>
-                              <a:schemeClr val="tx1"/>
-                            </a:solidFill>
-                            <a:effectLst/>
-                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                            <a:ea typeface="+mn-ea"/>
-                            <a:cs typeface="+mn-cs"/>
-                          </a:rPr>
-                          <m:t>𝑦</m:t>
-                        </m:r>
-                      </m:e>
-                      <m:sub>
-                        <m:r>
-                          <a:rPr lang="en-US" sz="1100" b="0" i="1">
-                            <a:solidFill>
-                              <a:schemeClr val="tx1"/>
-                            </a:solidFill>
-                            <a:effectLst/>
-                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                            <a:ea typeface="+mn-ea"/>
-                            <a:cs typeface="+mn-cs"/>
-                          </a:rPr>
-                          <m:t>𝑖</m:t>
-                        </m:r>
-                        <m:r>
-                          <a:rPr lang="en-US" sz="1100" b="0" i="1">
-                            <a:solidFill>
-                              <a:schemeClr val="tx1"/>
-                            </a:solidFill>
-                            <a:effectLst/>
-                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                            <a:ea typeface="+mn-ea"/>
-                            <a:cs typeface="+mn-cs"/>
-                          </a:rPr>
-                          <m:t>−1</m:t>
-                        </m:r>
-                      </m:sub>
-                    </m:sSub>
-                    <m:d>
-                      <m:dPr>
-                        <m:ctrlPr>
-                          <a:rPr lang="en-US" sz="1100" b="0" i="1">
-                            <a:solidFill>
-                              <a:schemeClr val="tx1"/>
-                            </a:solidFill>
-                            <a:effectLst/>
-                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                            <a:ea typeface="+mn-ea"/>
-                            <a:cs typeface="+mn-cs"/>
-                          </a:rPr>
-                        </m:ctrlPr>
-                      </m:dPr>
-                      <m:e>
-                        <m:r>
-                          <a:rPr lang="en-US" sz="1100" b="0" i="1">
-                            <a:solidFill>
-                              <a:schemeClr val="tx1"/>
-                            </a:solidFill>
-                            <a:effectLst/>
-                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                            <a:ea typeface="+mn-ea"/>
-                            <a:cs typeface="+mn-cs"/>
-                          </a:rPr>
-                          <m:t>2,163−0,735</m:t>
-                        </m:r>
-                        <m:r>
-                          <a:rPr lang="en-US" sz="1100" b="0" i="1">
-                            <a:solidFill>
-                              <a:schemeClr val="tx1"/>
-                            </a:solidFill>
-                            <a:effectLst/>
-                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                            <a:ea typeface="+mn-ea"/>
-                            <a:cs typeface="+mn-cs"/>
-                          </a:rPr>
-                          <m:t>𝑝</m:t>
-                        </m:r>
-                        <m:d>
-                          <m:dPr>
-                            <m:ctrlPr>
-                              <a:rPr lang="en-US" sz="1100" b="0" i="1">
-                                <a:solidFill>
-                                  <a:schemeClr val="tx1"/>
-                                </a:solidFill>
-                                <a:effectLst/>
-                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                                <a:ea typeface="+mn-ea"/>
-                                <a:cs typeface="+mn-cs"/>
-                              </a:rPr>
-                            </m:ctrlPr>
-                          </m:dPr>
-                          <m:e>
-                            <m:sSub>
-                              <m:sSubPr>
-                                <m:ctrlPr>
-                                  <a:rPr lang="en-US" sz="1100" b="0" i="1">
-                                    <a:solidFill>
-                                      <a:schemeClr val="tx1"/>
-                                    </a:solidFill>
-                                    <a:effectLst/>
-                                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                                    <a:ea typeface="+mn-ea"/>
-                                    <a:cs typeface="+mn-cs"/>
-                                  </a:rPr>
-                                </m:ctrlPr>
-                              </m:sSubPr>
-                              <m:e>
-                                <m:r>
-                                  <a:rPr lang="en-US" sz="1100" b="0" i="1">
-                                    <a:solidFill>
-                                      <a:schemeClr val="tx1"/>
-                                    </a:solidFill>
-                                    <a:effectLst/>
-                                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                                    <a:ea typeface="+mn-ea"/>
-                                    <a:cs typeface="+mn-cs"/>
-                                  </a:rPr>
-                                  <m:t>𝑥</m:t>
-                                </m:r>
-                              </m:e>
-                              <m:sub>
-                                <m:r>
-                                  <a:rPr lang="en-US" sz="1100" b="0" i="1">
-                                    <a:solidFill>
-                                      <a:schemeClr val="tx1"/>
-                                    </a:solidFill>
-                                    <a:effectLst/>
-                                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                                    <a:ea typeface="+mn-ea"/>
-                                    <a:cs typeface="+mn-cs"/>
-                                  </a:rPr>
-                                  <m:t>𝑖</m:t>
-                                </m:r>
-                              </m:sub>
-                            </m:sSub>
-                          </m:e>
-                        </m:d>
-                      </m:e>
-                    </m:d>
-                    <m:r>
-                      <a:rPr lang="en-US" sz="1100" b="0" i="1">
-                        <a:solidFill>
-                          <a:schemeClr val="tx1"/>
-                        </a:solidFill>
-                        <a:effectLst/>
-                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                        <a:ea typeface="+mn-ea"/>
-                        <a:cs typeface="+mn-cs"/>
-                      </a:rPr>
-                      <m:t>+</m:t>
-                    </m:r>
-                    <m:sSub>
-                      <m:sSubPr>
-                        <m:ctrlPr>
-                          <a:rPr lang="en-US" sz="1100" b="0" i="1">
-                            <a:solidFill>
-                              <a:schemeClr val="tx1"/>
-                            </a:solidFill>
-                            <a:effectLst/>
-                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                            <a:ea typeface="+mn-ea"/>
-                            <a:cs typeface="+mn-cs"/>
-                          </a:rPr>
-                        </m:ctrlPr>
-                      </m:sSubPr>
-                      <m:e>
-                        <m:r>
-                          <a:rPr lang="en-US" sz="1100" b="0" i="1">
-                            <a:solidFill>
-                              <a:schemeClr val="tx1"/>
-                            </a:solidFill>
-                            <a:effectLst/>
-                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                            <a:ea typeface="+mn-ea"/>
-                            <a:cs typeface="+mn-cs"/>
-                          </a:rPr>
-                          <m:t>𝑦</m:t>
-                        </m:r>
-                      </m:e>
-                      <m:sub>
-                        <m:r>
-                          <a:rPr lang="en-US" sz="1100" b="0" i="1">
-                            <a:solidFill>
-                              <a:schemeClr val="tx1"/>
-                            </a:solidFill>
-                            <a:effectLst/>
-                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                            <a:ea typeface="+mn-ea"/>
-                            <a:cs typeface="+mn-cs"/>
-                          </a:rPr>
-                          <m:t>𝑖</m:t>
-                        </m:r>
-                      </m:sub>
-                    </m:sSub>
-                    <m:d>
-                      <m:dPr>
-                        <m:ctrlPr>
-                          <a:rPr lang="en-US" sz="1100" b="0" i="1">
-                            <a:solidFill>
-                              <a:schemeClr val="tx1"/>
-                            </a:solidFill>
-                            <a:effectLst/>
-                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                            <a:ea typeface="+mn-ea"/>
-                            <a:cs typeface="+mn-cs"/>
-                          </a:rPr>
-                        </m:ctrlPr>
-                      </m:dPr>
-                      <m:e>
-                        <m:r>
-                          <a:rPr lang="en-US" sz="1100" b="0" i="1">
-                            <a:solidFill>
-                              <a:schemeClr val="tx1"/>
-                            </a:solidFill>
-                            <a:effectLst/>
-                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                            <a:ea typeface="+mn-ea"/>
-                            <a:cs typeface="+mn-cs"/>
-                          </a:rPr>
-                          <m:t>𝑞</m:t>
-                        </m:r>
-                        <m:d>
-                          <m:dPr>
-                            <m:ctrlPr>
-                              <a:rPr lang="en-US" sz="1100" b="0" i="1">
-                                <a:solidFill>
-                                  <a:schemeClr val="tx1"/>
-                                </a:solidFill>
-                                <a:effectLst/>
-                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                                <a:ea typeface="+mn-ea"/>
-                                <a:cs typeface="+mn-cs"/>
-                              </a:rPr>
-                            </m:ctrlPr>
-                          </m:dPr>
-                          <m:e>
-                            <m:sSub>
-                              <m:sSubPr>
-                                <m:ctrlPr>
-                                  <a:rPr lang="en-US" sz="1100" b="0" i="1">
-                                    <a:solidFill>
-                                      <a:schemeClr val="tx1"/>
-                                    </a:solidFill>
-                                    <a:effectLst/>
-                                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                                    <a:ea typeface="+mn-ea"/>
-                                    <a:cs typeface="+mn-cs"/>
-                                  </a:rPr>
-                                </m:ctrlPr>
-                              </m:sSubPr>
-                              <m:e>
-                                <m:r>
-                                  <a:rPr lang="en-US" sz="1100" b="0" i="1">
-                                    <a:solidFill>
-                                      <a:schemeClr val="tx1"/>
-                                    </a:solidFill>
-                                    <a:effectLst/>
-                                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                                    <a:ea typeface="+mn-ea"/>
-                                    <a:cs typeface="+mn-cs"/>
-                                  </a:rPr>
-                                  <m:t>𝑥</m:t>
-                                </m:r>
-                              </m:e>
-                              <m:sub>
-                                <m:r>
-                                  <a:rPr lang="en-US" sz="1100" b="0" i="1">
-                                    <a:solidFill>
-                                      <a:schemeClr val="tx1"/>
-                                    </a:solidFill>
-                                    <a:effectLst/>
-                                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                                    <a:ea typeface="+mn-ea"/>
-                                    <a:cs typeface="+mn-cs"/>
-                                  </a:rPr>
-                                  <m:t>𝑖</m:t>
-                                </m:r>
-                              </m:sub>
-                            </m:sSub>
-                          </m:e>
-                        </m:d>
-                        <m:r>
-                          <a:rPr lang="en-US" sz="1100" b="0" i="1">
-                            <a:solidFill>
-                              <a:schemeClr val="tx1"/>
-                            </a:solidFill>
-                            <a:effectLst/>
-                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                            <a:ea typeface="+mn-ea"/>
-                            <a:cs typeface="+mn-cs"/>
-                          </a:rPr>
-                          <m:t>−4,325</m:t>
-                        </m:r>
-                      </m:e>
-                    </m:d>
-                    <m:r>
-                      <a:rPr lang="en-US" sz="1100" b="0" i="1">
-                        <a:solidFill>
-                          <a:schemeClr val="tx1"/>
-                        </a:solidFill>
-                        <a:effectLst/>
-                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                        <a:ea typeface="+mn-ea"/>
-                        <a:cs typeface="+mn-cs"/>
-                      </a:rPr>
-                      <m:t>=</m:t>
-                    </m:r>
-                    <m:r>
-                      <a:rPr lang="en-US" sz="1100" b="0" i="1">
-                        <a:solidFill>
-                          <a:schemeClr val="tx1"/>
-                        </a:solidFill>
-                        <a:effectLst/>
-                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                        <a:ea typeface="+mn-ea"/>
-                        <a:cs typeface="+mn-cs"/>
-                      </a:rPr>
-                      <m:t>𝑓</m:t>
-                    </m:r>
-                    <m:r>
-                      <a:rPr lang="en-US" sz="1100" b="0" i="1">
-                        <a:solidFill>
-                          <a:schemeClr val="tx1"/>
-                        </a:solidFill>
-                        <a:effectLst/>
-                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                        <a:ea typeface="+mn-ea"/>
-                        <a:cs typeface="+mn-cs"/>
-                      </a:rPr>
-                      <m:t>(</m:t>
-                    </m:r>
-                    <m:sSub>
-                      <m:sSubPr>
-                        <m:ctrlPr>
-                          <a:rPr lang="en-US" sz="1100" b="0" i="1">
-                            <a:solidFill>
-                              <a:schemeClr val="tx1"/>
-                            </a:solidFill>
-                            <a:effectLst/>
-                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                            <a:ea typeface="+mn-ea"/>
-                            <a:cs typeface="+mn-cs"/>
-                          </a:rPr>
-                        </m:ctrlPr>
-                      </m:sSubPr>
-                      <m:e>
-                        <m:r>
-                          <a:rPr lang="en-US" sz="1100" b="0" i="1">
-                            <a:solidFill>
-                              <a:schemeClr val="tx1"/>
-                            </a:solidFill>
-                            <a:effectLst/>
-                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                            <a:ea typeface="+mn-ea"/>
-                            <a:cs typeface="+mn-cs"/>
-                          </a:rPr>
-                          <m:t>𝑥</m:t>
-                        </m:r>
-                      </m:e>
-                      <m:sub>
-                        <m:r>
-                          <a:rPr lang="en-US" sz="1100" b="0" i="1">
-                            <a:solidFill>
-                              <a:schemeClr val="tx1"/>
-                            </a:solidFill>
-                            <a:effectLst/>
-                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                            <a:ea typeface="+mn-ea"/>
-                            <a:cs typeface="+mn-cs"/>
-                          </a:rPr>
-                          <m:t>𝑖</m:t>
-                        </m:r>
-                      </m:sub>
-                    </m:sSub>
-                    <m:r>
-                      <a:rPr lang="en-US" sz="1100" b="0" i="1">
-                        <a:solidFill>
-                          <a:schemeClr val="tx1"/>
-                        </a:solidFill>
-                        <a:effectLst/>
-                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                        <a:ea typeface="+mn-ea"/>
-                        <a:cs typeface="+mn-cs"/>
-                      </a:rPr>
-                      <m:t>)</m:t>
-                    </m:r>
-                  </m:oMath>
-                </m:oMathPara>
-              </a14:m>
-              <a:endParaRPr lang="ru-RU" sz="1100"/>
-            </a:p>
-          </xdr:txBody>
-        </xdr:sp>
-      </mc:Choice>
-      <mc:Fallback xmlns="">
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="7" name="TextBox 6">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{83535C20-8E60-48E5-99DB-C7608F0BFC11}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr txBox="1"/>
-          </xdr:nvSpPr>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="6200775" y="1138237"/>
-              <a:ext cx="4977901" cy="191078"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:noFill/>
-          </xdr:spPr>
-          <xdr:style>
-            <a:lnRef idx="0">
-              <a:scrgbClr r="0" g="0" b="0"/>
-            </a:lnRef>
-            <a:fillRef idx="0">
-              <a:scrgbClr r="0" g="0" b="0"/>
-            </a:fillRef>
-            <a:effectRef idx="0">
-              <a:scrgbClr r="0" g="0" b="0"/>
-            </a:effectRef>
-            <a:fontRef idx="minor">
-              <a:schemeClr val="tx1"/>
-            </a:fontRef>
-          </xdr:style>
-          <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
-              <a:spAutoFit/>
-            </a:bodyPr>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr/>
-              <a:r>
-                <a:rPr lang="en-US" sz="1100" b="0" i="0">
-                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                </a:rPr>
-                <a:t>𝑦</a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="ru-RU" sz="1100" b="0" i="0">
-                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                </a:rPr>
-                <a:t>_(</a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="en-US" sz="1100" b="0" i="0">
-                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                </a:rPr>
-                <a:t>𝑖+1</a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="ru-RU" sz="1100" b="0" i="0">
-                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                </a:rPr>
-                <a:t>)</a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="en-US" sz="1100" b="0" i="0">
-                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                </a:rPr>
-                <a:t> (2,163+0,735𝑝(𝑥_𝑖 ))+</a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="en-US" sz="1100" b="0" i="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                  <a:effectLst/>
-                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t>𝑦</a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="ru-RU" sz="1100" b="0" i="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                  <a:effectLst/>
-                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t>_(</a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="en-US" sz="1100" b="0" i="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                  <a:effectLst/>
-                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t>𝑖−1</a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="ru-RU" sz="1100" b="0" i="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                  <a:effectLst/>
-                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t>)</a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="en-US" sz="1100" b="0" i="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                  <a:effectLst/>
-                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t> (2,163−0,735𝑝(𝑥_𝑖 ))+𝑦_𝑖 (𝑞(𝑥_𝑖 )−4,325)=𝑓(𝑥_𝑖)</a:t>
-              </a:r>
-              <a:endParaRPr lang="ru-RU" sz="1100"/>
-            </a:p>
-          </xdr:txBody>
-        </xdr:sp>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>66675</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="2899191" cy="191078"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-      <mc:Choice Requires="a14">
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="8" name="TextBox 7">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F56AEFAA-3508-42DC-9B35-3BCD0B9FF70E}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr txBox="1"/>
-          </xdr:nvSpPr>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="6162675" y="1485900"/>
-              <a:ext cx="2899191" cy="191078"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:noFill/>
-          </xdr:spPr>
-          <xdr:style>
-            <a:lnRef idx="0">
-              <a:scrgbClr r="0" g="0" b="0"/>
-            </a:lnRef>
-            <a:fillRef idx="0">
-              <a:scrgbClr r="0" g="0" b="0"/>
-            </a:fillRef>
-            <a:effectRef idx="0">
-              <a:scrgbClr r="0" g="0" b="0"/>
-            </a:effectRef>
-            <a:fontRef idx="minor">
-              <a:schemeClr val="tx1"/>
-            </a:fontRef>
-          </xdr:style>
-          <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
-              <a:spAutoFit/>
-            </a:bodyPr>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr/>
-              <a14:m>
-                <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
-                  <m:oMathParaPr>
-                    <m:jc m:val="centerGroup"/>
-                  </m:oMathParaPr>
-                  <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
-                    <m:sSub>
-                      <m:sSubPr>
-                        <m:ctrlPr>
-                          <a:rPr lang="en-US" sz="1100" b="0" i="1">
-                            <a:solidFill>
-                              <a:schemeClr val="tx1"/>
-                            </a:solidFill>
-                            <a:effectLst/>
-                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                            <a:ea typeface="+mn-ea"/>
-                            <a:cs typeface="+mn-cs"/>
-                          </a:rPr>
-                        </m:ctrlPr>
-                      </m:sSubPr>
-                      <m:e>
-                        <m:r>
-                          <a:rPr lang="en-US" sz="1100" b="0" i="1">
-                            <a:solidFill>
-                              <a:schemeClr val="tx1"/>
-                            </a:solidFill>
-                            <a:effectLst/>
-                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                            <a:ea typeface="+mn-ea"/>
-                            <a:cs typeface="+mn-cs"/>
-                          </a:rPr>
-                          <m:t>𝑦</m:t>
-                        </m:r>
-                      </m:e>
-                      <m:sub>
-                        <m:r>
-                          <a:rPr lang="en-US" sz="1100" b="0" i="1">
-                            <a:solidFill>
-                              <a:schemeClr val="tx1"/>
-                            </a:solidFill>
-                            <a:effectLst/>
-                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                            <a:ea typeface="+mn-ea"/>
-                            <a:cs typeface="+mn-cs"/>
-                          </a:rPr>
-                          <m:t>0</m:t>
-                        </m:r>
-                      </m:sub>
-                    </m:sSub>
-                    <m:d>
-                      <m:dPr>
-                        <m:ctrlPr>
-                          <a:rPr lang="en-US" sz="1100" b="0" i="1">
-                            <a:solidFill>
-                              <a:schemeClr val="tx1"/>
-                            </a:solidFill>
-                            <a:effectLst/>
-                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                            <a:ea typeface="+mn-ea"/>
-                            <a:cs typeface="+mn-cs"/>
-                          </a:rPr>
-                        </m:ctrlPr>
-                      </m:dPr>
-                      <m:e>
-                        <m:r>
-                          <a:rPr lang="en-US" sz="1100" b="0" i="1">
-                            <a:solidFill>
-                              <a:schemeClr val="tx1"/>
-                            </a:solidFill>
-                            <a:effectLst/>
-                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                            <a:ea typeface="+mn-ea"/>
-                            <a:cs typeface="+mn-cs"/>
-                          </a:rPr>
-                          <m:t>𝑞</m:t>
-                        </m:r>
-                        <m:d>
-                          <m:dPr>
-                            <m:ctrlPr>
-                              <a:rPr lang="en-US" sz="1100" b="0" i="1">
-                                <a:solidFill>
-                                  <a:schemeClr val="tx1"/>
-                                </a:solidFill>
-                                <a:effectLst/>
-                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                                <a:ea typeface="+mn-ea"/>
-                                <a:cs typeface="+mn-cs"/>
-                              </a:rPr>
-                            </m:ctrlPr>
-                          </m:dPr>
-                          <m:e>
-                            <m:sSub>
-                              <m:sSubPr>
-                                <m:ctrlPr>
-                                  <a:rPr lang="en-US" sz="1100" b="0" i="1">
-                                    <a:solidFill>
-                                      <a:schemeClr val="tx1"/>
-                                    </a:solidFill>
-                                    <a:effectLst/>
-                                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                                    <a:ea typeface="+mn-ea"/>
-                                    <a:cs typeface="+mn-cs"/>
-                                  </a:rPr>
-                                </m:ctrlPr>
-                              </m:sSubPr>
-                              <m:e>
-                                <m:r>
-                                  <a:rPr lang="en-US" sz="1100" b="0" i="1">
-                                    <a:solidFill>
-                                      <a:schemeClr val="tx1"/>
-                                    </a:solidFill>
-                                    <a:effectLst/>
-                                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                                    <a:ea typeface="+mn-ea"/>
-                                    <a:cs typeface="+mn-cs"/>
-                                  </a:rPr>
-                                  <m:t>𝑥</m:t>
-                                </m:r>
-                              </m:e>
-                              <m:sub>
-                                <m:r>
-                                  <a:rPr lang="en-US" sz="1100" b="0" i="1">
-                                    <a:solidFill>
-                                      <a:schemeClr val="tx1"/>
-                                    </a:solidFill>
-                                    <a:effectLst/>
-                                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                                    <a:ea typeface="+mn-ea"/>
-                                    <a:cs typeface="+mn-cs"/>
-                                  </a:rPr>
-                                  <m:t>𝑖</m:t>
-                                </m:r>
-                              </m:sub>
-                            </m:sSub>
-                          </m:e>
-                        </m:d>
-                        <m:r>
-                          <a:rPr lang="en-US" sz="1100" b="0" i="1">
-                            <a:solidFill>
-                              <a:schemeClr val="tx1"/>
-                            </a:solidFill>
-                            <a:effectLst/>
-                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                            <a:ea typeface="+mn-ea"/>
-                            <a:cs typeface="+mn-cs"/>
-                          </a:rPr>
-                          <m:t>−1,471</m:t>
-                        </m:r>
-                        <m:r>
-                          <a:rPr lang="en-US" sz="1100" b="0" i="1">
-                            <a:solidFill>
-                              <a:schemeClr val="tx1"/>
-                            </a:solidFill>
-                            <a:effectLst/>
-                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                            <a:ea typeface="+mn-ea"/>
-                            <a:cs typeface="+mn-cs"/>
-                          </a:rPr>
-                          <m:t>𝑝</m:t>
-                        </m:r>
-                        <m:d>
-                          <m:dPr>
-                            <m:ctrlPr>
-                              <a:rPr lang="en-US" sz="1100" b="0" i="1">
-                                <a:solidFill>
-                                  <a:schemeClr val="tx1"/>
-                                </a:solidFill>
-                                <a:effectLst/>
-                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                                <a:ea typeface="+mn-ea"/>
-                                <a:cs typeface="+mn-cs"/>
-                              </a:rPr>
-                            </m:ctrlPr>
-                          </m:dPr>
-                          <m:e>
-                            <m:sSub>
-                              <m:sSubPr>
-                                <m:ctrlPr>
-                                  <a:rPr lang="en-US" sz="1100" b="0" i="1">
-                                    <a:solidFill>
-                                      <a:schemeClr val="tx1"/>
-                                    </a:solidFill>
-                                    <a:effectLst/>
-                                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                                    <a:ea typeface="+mn-ea"/>
-                                    <a:cs typeface="+mn-cs"/>
-                                  </a:rPr>
-                                </m:ctrlPr>
-                              </m:sSubPr>
-                              <m:e>
-                                <m:r>
-                                  <a:rPr lang="en-US" sz="1100" b="0" i="1">
-                                    <a:solidFill>
-                                      <a:schemeClr val="tx1"/>
-                                    </a:solidFill>
-                                    <a:effectLst/>
-                                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                                    <a:ea typeface="+mn-ea"/>
-                                    <a:cs typeface="+mn-cs"/>
-                                  </a:rPr>
-                                  <m:t>𝑥</m:t>
-                                </m:r>
-                              </m:e>
-                              <m:sub>
-                                <m:r>
-                                  <a:rPr lang="en-US" sz="1100" b="0" i="1">
-                                    <a:solidFill>
-                                      <a:schemeClr val="tx1"/>
-                                    </a:solidFill>
-                                    <a:effectLst/>
-                                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                                    <a:ea typeface="+mn-ea"/>
-                                    <a:cs typeface="+mn-cs"/>
-                                  </a:rPr>
-                                  <m:t>𝑖</m:t>
-                                </m:r>
-                              </m:sub>
-                            </m:sSub>
-                          </m:e>
-                        </m:d>
-                      </m:e>
-                    </m:d>
-                    <m:r>
-                      <a:rPr lang="en-US" sz="1100" b="0" i="1">
-                        <a:solidFill>
-                          <a:schemeClr val="tx1"/>
-                        </a:solidFill>
-                        <a:effectLst/>
-                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                        <a:ea typeface="+mn-ea"/>
-                        <a:cs typeface="+mn-cs"/>
-                      </a:rPr>
-                      <m:t>+1,471</m:t>
-                    </m:r>
-                    <m:r>
-                      <a:rPr lang="en-US" sz="1100" b="0" i="1">
-                        <a:solidFill>
-                          <a:schemeClr val="tx1"/>
-                        </a:solidFill>
-                        <a:effectLst/>
-                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                        <a:ea typeface="+mn-ea"/>
-                        <a:cs typeface="+mn-cs"/>
-                      </a:rPr>
-                      <m:t>𝑝</m:t>
-                    </m:r>
-                    <m:d>
-                      <m:dPr>
-                        <m:ctrlPr>
-                          <a:rPr lang="en-US" sz="1100" b="0" i="1">
-                            <a:solidFill>
-                              <a:schemeClr val="tx1"/>
-                            </a:solidFill>
-                            <a:effectLst/>
-                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                            <a:ea typeface="+mn-ea"/>
-                            <a:cs typeface="+mn-cs"/>
-                          </a:rPr>
-                        </m:ctrlPr>
-                      </m:dPr>
-                      <m:e>
-                        <m:sSub>
-                          <m:sSubPr>
-                            <m:ctrlPr>
-                              <a:rPr lang="en-US" sz="1100" b="0" i="1">
-                                <a:solidFill>
-                                  <a:schemeClr val="tx1"/>
-                                </a:solidFill>
-                                <a:effectLst/>
-                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                                <a:ea typeface="+mn-ea"/>
-                                <a:cs typeface="+mn-cs"/>
-                              </a:rPr>
-                            </m:ctrlPr>
-                          </m:sSubPr>
-                          <m:e>
-                            <m:r>
-                              <a:rPr lang="en-US" sz="1100" b="0" i="1">
-                                <a:solidFill>
-                                  <a:schemeClr val="tx1"/>
-                                </a:solidFill>
-                                <a:effectLst/>
-                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                                <a:ea typeface="+mn-ea"/>
-                                <a:cs typeface="+mn-cs"/>
-                              </a:rPr>
-                              <m:t>𝑥</m:t>
-                            </m:r>
-                          </m:e>
-                          <m:sub>
-                            <m:r>
-                              <a:rPr lang="en-US" sz="1100" b="0" i="1">
-                                <a:solidFill>
-                                  <a:schemeClr val="tx1"/>
-                                </a:solidFill>
-                                <a:effectLst/>
-                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                                <a:ea typeface="+mn-ea"/>
-                                <a:cs typeface="+mn-cs"/>
-                              </a:rPr>
-                              <m:t>𝑖</m:t>
-                            </m:r>
-                          </m:sub>
-                        </m:sSub>
-                      </m:e>
-                    </m:d>
-                    <m:sSub>
-                      <m:sSubPr>
-                        <m:ctrlPr>
-                          <a:rPr lang="ru-RU" sz="1100" i="1">
-                            <a:solidFill>
-                              <a:schemeClr val="tx1"/>
-                            </a:solidFill>
-                            <a:effectLst/>
-                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                            <a:ea typeface="+mn-ea"/>
-                            <a:cs typeface="+mn-cs"/>
-                          </a:rPr>
-                        </m:ctrlPr>
-                      </m:sSubPr>
-                      <m:e>
-                        <m:r>
-                          <a:rPr lang="en-US" sz="1100" b="0" i="1">
-                            <a:solidFill>
-                              <a:schemeClr val="tx1"/>
-                            </a:solidFill>
-                            <a:effectLst/>
-                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                            <a:ea typeface="+mn-ea"/>
-                            <a:cs typeface="+mn-cs"/>
-                          </a:rPr>
-                          <m:t>𝑦</m:t>
-                        </m:r>
-                      </m:e>
-                      <m:sub>
-                        <m:r>
-                          <a:rPr lang="en-US" sz="1100" b="0" i="1">
-                            <a:solidFill>
-                              <a:schemeClr val="tx1"/>
-                            </a:solidFill>
-                            <a:effectLst/>
-                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                            <a:ea typeface="+mn-ea"/>
-                            <a:cs typeface="+mn-cs"/>
-                          </a:rPr>
-                          <m:t>1</m:t>
-                        </m:r>
-                      </m:sub>
-                    </m:sSub>
-                    <m:r>
-                      <a:rPr lang="en-US" sz="1100" b="0" i="1">
-                        <a:solidFill>
-                          <a:schemeClr val="tx1"/>
-                        </a:solidFill>
-                        <a:effectLst/>
-                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                        <a:ea typeface="+mn-ea"/>
-                        <a:cs typeface="+mn-cs"/>
-                      </a:rPr>
-                      <m:t>=</m:t>
-                    </m:r>
-                    <m:r>
-                      <a:rPr lang="en-US" sz="1100" b="0" i="1">
-                        <a:solidFill>
-                          <a:schemeClr val="tx1"/>
-                        </a:solidFill>
-                        <a:effectLst/>
-                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                        <a:ea typeface="+mn-ea"/>
-                        <a:cs typeface="+mn-cs"/>
-                      </a:rPr>
-                      <m:t>𝑓</m:t>
-                    </m:r>
-                    <m:r>
-                      <a:rPr lang="en-US" sz="1100" b="0" i="1">
-                        <a:solidFill>
-                          <a:schemeClr val="tx1"/>
-                        </a:solidFill>
-                        <a:effectLst/>
-                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                        <a:ea typeface="+mn-ea"/>
-                        <a:cs typeface="+mn-cs"/>
-                      </a:rPr>
-                      <m:t>(</m:t>
-                    </m:r>
-                    <m:sSub>
-                      <m:sSubPr>
-                        <m:ctrlPr>
-                          <a:rPr lang="en-US" sz="1100" b="0" i="1">
-                            <a:solidFill>
-                              <a:schemeClr val="tx1"/>
-                            </a:solidFill>
-                            <a:effectLst/>
-                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                            <a:ea typeface="+mn-ea"/>
-                            <a:cs typeface="+mn-cs"/>
-                          </a:rPr>
-                        </m:ctrlPr>
-                      </m:sSubPr>
-                      <m:e>
-                        <m:r>
-                          <a:rPr lang="en-US" sz="1100" b="0" i="1">
-                            <a:solidFill>
-                              <a:schemeClr val="tx1"/>
-                            </a:solidFill>
-                            <a:effectLst/>
-                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                            <a:ea typeface="+mn-ea"/>
-                            <a:cs typeface="+mn-cs"/>
-                          </a:rPr>
-                          <m:t>𝑥</m:t>
-                        </m:r>
-                      </m:e>
-                      <m:sub>
-                        <m:r>
-                          <a:rPr lang="en-US" sz="1100" b="0" i="1">
-                            <a:solidFill>
-                              <a:schemeClr val="tx1"/>
-                            </a:solidFill>
-                            <a:effectLst/>
-                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                            <a:ea typeface="+mn-ea"/>
-                            <a:cs typeface="+mn-cs"/>
-                          </a:rPr>
-                          <m:t>𝑖</m:t>
-                        </m:r>
-                      </m:sub>
-                    </m:sSub>
-                    <m:r>
-                      <a:rPr lang="en-US" sz="1100" b="0" i="1">
-                        <a:solidFill>
-                          <a:schemeClr val="tx1"/>
-                        </a:solidFill>
-                        <a:effectLst/>
-                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                        <a:ea typeface="+mn-ea"/>
-                        <a:cs typeface="+mn-cs"/>
-                      </a:rPr>
-                      <m:t>)</m:t>
-                    </m:r>
-                  </m:oMath>
-                </m:oMathPara>
-              </a14:m>
-              <a:endParaRPr lang="ru-RU" sz="1100"/>
-            </a:p>
-          </xdr:txBody>
-        </xdr:sp>
-      </mc:Choice>
-      <mc:Fallback xmlns="">
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="8" name="TextBox 7">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F56AEFAA-3508-42DC-9B35-3BCD0B9FF70E}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr txBox="1"/>
-          </xdr:nvSpPr>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="6162675" y="1485900"/>
-              <a:ext cx="2899191" cy="191078"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:noFill/>
-          </xdr:spPr>
-          <xdr:style>
-            <a:lnRef idx="0">
-              <a:scrgbClr r="0" g="0" b="0"/>
-            </a:lnRef>
-            <a:fillRef idx="0">
-              <a:scrgbClr r="0" g="0" b="0"/>
-            </a:fillRef>
-            <a:effectRef idx="0">
-              <a:scrgbClr r="0" g="0" b="0"/>
-            </a:effectRef>
-            <a:fontRef idx="minor">
-              <a:schemeClr val="tx1"/>
-            </a:fontRef>
-          </xdr:style>
-          <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
-              <a:spAutoFit/>
-            </a:bodyPr>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr/>
-              <a:r>
-                <a:rPr lang="en-US" sz="1100" b="0" i="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                  <a:effectLst/>
-                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t>𝑦_0 (𝑞(𝑥_𝑖 )−1,471</a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="en-US" sz="1100" b="0" i="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                  <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t>𝑝(𝑥_𝑖 )</a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="en-US" sz="1100" b="0" i="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                  <a:effectLst/>
-                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t>)+</a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="en-US" sz="1100" b="0" i="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                  <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t>1,471𝑝(𝑥_𝑖 )</a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="ru-RU" sz="1100" b="0" i="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                  <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t> </a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="en-US" sz="1100" b="0" i="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                  <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t>𝑦</a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="ru-RU" sz="1100" b="0" i="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                  <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t>_</a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="en-US" sz="1100" b="0" i="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                  <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t>1</a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="en-US" sz="1100" b="0" i="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                  <a:effectLst/>
-                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t>=𝑓(𝑥_𝑖)</a:t>
-              </a:r>
-              <a:endParaRPr lang="ru-RU" sz="1100"/>
-            </a:p>
-          </xdr:txBody>
-        </xdr:sp>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
@@ -6470,7 +5105,7 @@
   <dimension ref="A1:R28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Z16" sqref="Z16"/>
+      <selection activeCell="H20" sqref="H20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6634,7 +5269,7 @@
         <v>-1.5</v>
       </c>
       <c r="C6" s="1">
-        <f t="shared" ref="C6:C10" si="0">B6^2+2.4</f>
+        <f t="shared" ref="C6:C9" si="0">B6^2+2.4</f>
         <v>4.6500000000000004</v>
       </c>
       <c r="D6" s="1">
@@ -7469,7 +6104,7 @@
         <v>1.913634785652814</v>
       </c>
       <c r="I15" s="6">
-        <f t="shared" ref="I15:I22" si="9">I14+$D$4/6*(J14+2*K14+2*L14+M14)</f>
+        <f t="shared" ref="I15:I21" si="9">I14+$D$4/6*(J14+2*K14+2*L14+M14)</f>
         <v>1.5491849239668745</v>
       </c>
       <c r="J15" s="6">

--- a/Textbooks, projects/Applied Math/labs/lab_6/var_17/lab_6_var_17.xlsx
+++ b/Textbooks, projects/Applied Math/labs/lab_6/var_17/lab_6_var_17.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21029"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19800930-C3D1-43F7-9627-569963FBEAB1}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1886472-E27C-4311-A747-7130BF1E981C}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -5105,7 +5105,7 @@
   <dimension ref="A1:R28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H20" sqref="H20"/>
+      <selection activeCell="J18" sqref="J18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Textbooks, projects/Applied Math/labs/lab_6/var_17/lab_6_var_17.xlsx
+++ b/Textbooks, projects/Applied Math/labs/lab_6/var_17/lab_6_var_17.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21029"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1886472-E27C-4311-A747-7130BF1E981C}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B64A104-7F24-4503-A3FD-11CE00409746}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -5105,7 +5105,7 @@
   <dimension ref="A1:R28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J18" sqref="J18"/>
+      <selection activeCell="R8" sqref="R8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
